--- a/Virtual Labs.xlsx
+++ b/Virtual Labs.xlsx
@@ -5,17 +5,17 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Material_general\Oracle\Oracle_Oct_24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Material_general\Oracle\Oracle_Oct_24\Oracle_Oct_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CE131B-FC03-4133-AECF-6DDA062BFE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C03698F-0474-48BD-84A3-4C3733083D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11486" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33420" yWindow="-180" windowWidth="29160" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -158,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -176,6 +176,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -216,10 +222,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -231,8 +238,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -568,10 +580,10 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.3046875" customWidth="1"/>
     <col min="2" max="2" width="17.53515625" customWidth="1"/>
@@ -579,7 +591,7 @@
     <col min="4" max="4" width="16.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -593,21 +605,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -621,7 +633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.15">
+    <row r="4" spans="1:4" ht="26.15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -635,7 +647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -649,7 +661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -663,7 +675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -677,7 +689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -687,11 +699,11 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -705,7 +717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -715,11 +727,11 @@
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -733,7 +745,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -747,7 +759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -757,11 +769,11 @@
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -775,7 +787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="26.15">
+    <row r="15" spans="1:4" ht="26.15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -789,7 +801,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -803,7 +815,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -817,7 +829,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -831,7 +843,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -845,7 +857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -860,6 +872,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{DA4853A0-A94F-4193-9E7F-C8EB09E20378}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Virtual Labs.xlsx
+++ b/Virtual Labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Material_general\Oracle\Oracle_Oct_24\Oracle_Oct_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C03698F-0474-48BD-84A3-4C3733083D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA26EF4-ABBF-458E-A27C-AD0A8D91345E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33420" yWindow="-180" windowWidth="29160" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +194,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -242,6 +248,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -580,7 +592,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -615,7 +627,7 @@
       <c r="C2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -629,7 +641,7 @@
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -643,7 +655,7 @@
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -699,7 +711,7 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -727,7 +739,7 @@
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -741,7 +753,7 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -769,7 +781,7 @@
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -783,7 +795,7 @@
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -797,7 +809,7 @@
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -811,7 +823,7 @@
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -825,7 +837,7 @@
       <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -853,7 +865,7 @@
       <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -867,7 +879,7 @@
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="8" t="s">
         <v>43</v>
       </c>
     </row>
